--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-df/resources/outputs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4963C-17F7-4C3C-8CDB-4FE3B543F36A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ABCDE7-EB45-CF4F-AF74-0E15F39E2BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2490" windowWidth="26970" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2500" windowWidth="26980" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="410">
   <si>
     <t>from_name</t>
   </si>
@@ -801,9 +801,6 @@
     <t>{'bruising on face for trauma': 'V_1', 'Stool results: RC+,WC ++, E.histolytice +': 'V_2', 'Epigastrium pain': 'V_3'}</t>
   </si>
   <si>
-    <t>{1: 'V_1', 2: 'V_2', 3: 'V_3'}</t>
-  </si>
-  <si>
     <t>{5: 'V_1', 6: 'V_2', 8: 'V_3', 7: 'V_4'}</t>
   </si>
   <si>
@@ -1062,9 +1059,6 @@
     <t>death_date</t>
   </si>
   <si>
-    <t>death_from_shock</t>
-  </si>
-  <si>
     <t>multiple_shock</t>
   </si>
   <si>
@@ -1252,6 +1246,12 @@
   </si>
   <si>
     <t>{'pos': 'Positive', 'equiv': 'Equivocal', 'neg': 'Negative'}</t>
+  </si>
+  <si>
+    <t>{1: True, 2: False, 3: None}</t>
+  </si>
+  <si>
+    <t>shock</t>
   </si>
 </sst>
 </file>
@@ -1656,30 +1656,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="121.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,13 +1711,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1731,12 +1731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1886,27 +1886,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2027,15 +2027,15 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
         <v>243</v>
@@ -2044,15 +2044,15 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
         <v>243</v>
@@ -2061,12 +2061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2106,27 +2106,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
         <v>302</v>
       </c>
-      <c r="C27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" t="s">
-        <v>303</v>
-      </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2137,21 +2137,21 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -2160,32 +2160,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" t="s">
         <v>306</v>
       </c>
-      <c r="C30" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" t="s">
-        <v>307</v>
-      </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
         <v>238</v>
@@ -2194,32 +2194,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
         <v>238</v>
@@ -2228,32 +2228,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
         <v>239</v>
@@ -2265,32 +2265,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
         <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C37" t="s">
         <v>238</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2310,21 +2310,21 @@
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C39" t="s">
         <v>238</v>
@@ -2333,32 +2333,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
         <v>238</v>
@@ -2367,32 +2367,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
         <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
         <v>238</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2412,21 +2412,21 @@
         <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -2435,32 +2435,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
         <v>239</v>
@@ -2469,32 +2469,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
         <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
         <v>239</v>
@@ -2503,32 +2503,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
         <v>238</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2548,13 +2548,13 @@
         <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2593,13 +2593,13 @@
         <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2641,13 +2641,13 @@
         <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2672,13 +2672,13 @@
         <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2703,13 +2703,13 @@
         <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2734,98 +2734,98 @@
         <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
         <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" t="s">
         <v>317</v>
       </c>
-      <c r="C67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" t="s">
-        <v>318</v>
-      </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
         <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C69" t="s">
         <v>240</v>
@@ -2834,87 +2834,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
         <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" t="s">
         <v>313</v>
       </c>
-      <c r="C72" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" t="s">
-        <v>314</v>
-      </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
         <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2925,73 +2925,73 @@
         <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
         <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C76" t="s">
         <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C77" t="s">
         <v>239</v>
       </c>
       <c r="D77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3019,79 +3019,79 @@
         <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
         <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -3108,32 +3108,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" t="s">
         <v>330</v>
       </c>
-      <c r="C84" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" t="s">
-        <v>331</v>
-      </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C85" t="s">
         <v>239</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3173,76 +3173,76 @@
         <v>239</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
         <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s">
         <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s">
         <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3253,13 +3253,13 @@
         <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3327,124 +3327,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
         <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C98" t="s">
         <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" t="s">
         <v>339</v>
       </c>
-      <c r="C99" t="s">
-        <v>239</v>
-      </c>
-      <c r="D99" t="s">
-        <v>340</v>
-      </c>
       <c r="E99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3472,21 +3472,21 @@
         <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
@@ -3495,15 +3495,15 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
@@ -3512,27 +3512,30 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="C106" t="s">
         <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>259</v>
+        <v>408</v>
+      </c>
+      <c r="E106" t="s">
+        <v>344</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3543,13 +3546,13 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3563,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -3577,13 +3580,13 @@
         <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3594,13 +3597,13 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -3648,24 +3651,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="C114" t="s">
         <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>302</v>
+      </c>
+      <c r="E114" t="s">
+        <v>303</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -3710,10 +3716,10 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -3738,13 +3744,13 @@
         <v>239</v>
       </c>
       <c r="D119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3786,13 +3792,16 @@
         <v>239</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>313</v>
+      </c>
+      <c r="E122" t="s">
+        <v>303</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -3868,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -3899,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3913,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -3924,13 +3933,13 @@
         <v>239</v>
       </c>
       <c r="D131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -3955,13 +3964,13 @@
         <v>239</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3978,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -4040,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -4082,24 +4091,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s">
         <v>239</v>
       </c>
       <c r="D142" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E142" t="s">
+        <v>303</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -4166,13 +4178,13 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -4186,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -4200,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -4228,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -4281,13 +4293,13 @@
         <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -4301,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -4326,13 +4338,13 @@
         <v>239</v>
       </c>
       <c r="D158" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -4343,13 +4355,13 @@
         <v>239</v>
       </c>
       <c r="D159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -4377,13 +4389,13 @@
         <v>239</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -4394,13 +4406,13 @@
         <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -4448,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -4462,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -4476,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -4490,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -4532,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -4560,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -4574,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -4585,13 +4597,13 @@
         <v>239</v>
       </c>
       <c r="D175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -4602,70 +4614,70 @@
         <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C177" t="s">
         <v>239</v>
       </c>
       <c r="D177" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E177" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E178" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C179" t="s">
         <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -4676,13 +4688,13 @@
         <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -4699,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -4710,16 +4722,16 @@
         <v>239</v>
       </c>
       <c r="D182" t="s">
+        <v>342</v>
+      </c>
+      <c r="E182" t="s">
         <v>343</v>
       </c>
-      <c r="E182" t="s">
-        <v>344</v>
-      </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -4730,13 +4742,13 @@
         <v>239</v>
       </c>
       <c r="D183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -4747,13 +4759,13 @@
         <v>239</v>
       </c>
       <c r="D184" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -4792,13 +4804,13 @@
         <v>239</v>
       </c>
       <c r="D187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -4809,16 +4821,16 @@
         <v>241</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -4866,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -4877,13 +4889,13 @@
         <v>239</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -4894,13 +4906,13 @@
         <v>239</v>
       </c>
       <c r="D193" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -4911,13 +4923,13 @@
         <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -4945,13 +4957,13 @@
         <v>239</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -4993,27 +5005,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
         <v>240</v>
       </c>
       <c r="D200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E200" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -5024,13 +5036,13 @@
         <v>239</v>
       </c>
       <c r="D201" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -5041,33 +5053,33 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s">
         <v>239</v>
       </c>
       <c r="D203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E203" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -5084,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -5095,13 +5107,13 @@
         <v>239</v>
       </c>
       <c r="D205" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -5118,12 +5130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C207" t="s">
         <v>239</v>
@@ -5135,12 +5147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>216</v>
       </c>
       <c r="B208" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C208" t="s">
         <v>239</v>
@@ -5152,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -5169,12 +5181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>218</v>
       </c>
       <c r="B210" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C210" t="s">
         <v>239</v>
@@ -5186,12 +5198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>219</v>
       </c>
       <c r="B211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C211" t="s">
         <v>239</v>
@@ -5203,12 +5215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>220</v>
       </c>
       <c r="B212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C212" t="s">
         <v>239</v>
@@ -5220,12 +5232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>221</v>
       </c>
       <c r="B213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C213" t="s">
         <v>239</v>
@@ -5237,24 +5249,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C214" t="s">
         <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -5271,32 +5283,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C216" t="s">
         <v>241</v>
       </c>
       <c r="E216" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>225</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C217" t="s">
         <v>241</v>
@@ -5305,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -5319,21 +5331,21 @@
         <v>238</v>
       </c>
       <c r="E218" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>227</v>
       </c>
       <c r="B219" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C219" t="s">
         <v>238</v>
@@ -5342,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -5359,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -5376,15 +5388,15 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C222" t="s">
         <v>243</v>
@@ -5399,12 +5411,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B223" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K223" t="s">
         <v>37</v>
@@ -5413,12 +5425,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K224" t="s">
         <v>39</v>
@@ -5427,12 +5439,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B225" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K225" t="s">
         <v>41</v>
@@ -5441,12 +5453,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B226" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K226" t="s">
         <v>43</v>
@@ -5455,12 +5467,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B227" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
@@ -5469,12 +5481,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B228" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K228" t="s">
         <v>47</v>
@@ -5483,12 +5495,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B229" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K229" t="s">
         <v>49</v>
@@ -5497,12 +5509,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B230" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K230" t="s">
         <v>53</v>
@@ -5511,12 +5523,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B231" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K231" t="s">
         <v>55</v>
@@ -5525,12 +5537,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K232" t="s">
         <v>57</v>
@@ -5539,12 +5551,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B233" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K233" t="s">
         <v>59</v>
@@ -5553,12 +5565,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B234" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K234" t="s">
         <v>61</v>
@@ -5567,12 +5579,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B235" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K235" t="s">
         <v>51</v>
@@ -5591,27 +5603,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5643,13 +5655,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5660,18 +5672,18 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
         <v>242</v>
@@ -5680,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5708,12 +5720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
@@ -5722,61 +5734,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -5787,13 +5799,13 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -5804,64 +5816,64 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
         <v>291</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>287</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>287</v>
       </c>
-      <c r="C12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
         <v>292</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>288</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>288</v>
       </c>
-      <c r="C13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
         <v>293</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" t="s">
-        <v>294</v>
-      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5872,18 +5884,18 @@
         <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>243</v>
@@ -5892,12 +5904,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
         <v>243</v>
@@ -5906,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L17" t="s">
         <v>30</v>
@@ -5925,20 +5937,20 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5970,7 +5982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5981,13 +5993,13 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6015,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -6040,13 +6052,13 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -6057,64 +6069,64 @@
         <v>239</v>
       </c>
       <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
         <v>291</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>287</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>287</v>
       </c>
-      <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
         <v>292</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>288</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>288</v>
       </c>
-      <c r="C9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -6125,7 +6137,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-df/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ABCDE7-EB45-CF4F-AF74-0E15F39E2BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1189F-F74D-4AA4-93F5-05C327803557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2500" windowWidth="26980" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="457">
   <si>
     <t>from_name</t>
   </si>
@@ -774,9 +774,6 @@
     <t>{3: 'V_1'}</t>
   </si>
   <si>
-    <t>{'No': 'V_0', 'Unknow': 'V_1', 'Yes': 'V_2'}</t>
-  </si>
-  <si>
     <t>{'No': 'V_0', 'Yes': 'V_2'}</t>
   </si>
   <si>
@@ -825,9 +822,6 @@
     <t>{3: 'V_1', 4: 'V_2', 7: 'V_3', 5: 'V_4', 2: 'V_5'}</t>
   </si>
   <si>
-    <t>{'Mild': 'V_1', 'Moderate': 'V_2', 'No': 'V_3', 'Severe': 'V_4'}</t>
-  </si>
-  <si>
     <t>{'Crystalloid': 'V_1', 'Colloid': 'V_2'}</t>
   </si>
   <si>
@@ -849,9 +843,6 @@
     <t>{'&lt;2': 'V_1', '&gt;=2': 'V_2'}</t>
   </si>
   <si>
-    <t>{'Home': 'V_0', 'HTD': 'V_1', 'Other': 'V_2'}</t>
-  </si>
-  <si>
     <t>{1: 'V_0', 3: 'V_1', 4: 'V_2', 2: 'V_3'}</t>
   </si>
   <si>
@@ -861,9 +852,6 @@
     <t>{'nontrial': 'V_0', 'trial': 'V_1'}</t>
   </si>
   <si>
-    <t>{'non-severe': 'V_1', 'severe': 'V_2', 'critical': 'V_3'}</t>
-  </si>
-  <si>
     <t>{'any positive': 'V_1', 'missing': 'V_2', 'all negative': 'V_3'}</t>
   </si>
   <si>
@@ -1011,9 +999,6 @@
     <t>{'&lt;5': 3, 0: None}</t>
   </si>
   <si>
-    <t>heart_sound</t>
-  </si>
-  <si>
     <t>{'Normal': False, 'Abnormal': True}</t>
   </si>
   <si>
@@ -1095,9 +1080,6 @@
     <t>date_short_breath</t>
   </si>
   <si>
-    <t>breath_short</t>
-  </si>
-  <si>
     <t>headache_day</t>
   </si>
   <si>
@@ -1233,9 +1215,6 @@
     <t>{'Male': 'Male', 'Female': 'Female'}</t>
   </si>
   <si>
-    <t>bleeding_other_new</t>
-  </si>
-  <si>
     <t>bleeding_other_new_site</t>
   </si>
   <si>
@@ -1252,6 +1231,168 @@
   </si>
   <si>
     <t>shock</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Is this right?</t>
+  </si>
+  <si>
+    <t>What is this?</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>event_fever</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal?</t>
+  </si>
+  <si>
+    <t>text, contains diarrhea, nausea, ….</t>
+  </si>
+  <si>
+    <t>What to do with this</t>
+  </si>
+  <si>
+    <t>past_medical_history_description</t>
+  </si>
+  <si>
+    <t>text, contains penumonia, asthma, bronchitis, …</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>MEdication</t>
+  </si>
+  <si>
+    <t>shortness_of_breath</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal</t>
+  </si>
+  <si>
+    <t>bleeding_site</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal</t>
+  </si>
+  <si>
+    <t>oedema in general?</t>
+  </si>
+  <si>
+    <t>chest indrawing?</t>
+  </si>
+  <si>
+    <t>heart or lung? All negative</t>
+  </si>
+  <si>
+    <t>effusion or pleural efussion. Date observation or day effusion using eff day</t>
+  </si>
+  <si>
+    <t>date_effusion</t>
+  </si>
+  <si>
+    <t>date_ascites</t>
+  </si>
+  <si>
+    <t>ascites?</t>
+  </si>
+  <si>
+    <t>multiple_shock_no</t>
+  </si>
+  <si>
+    <t>multiple_shock_time</t>
+  </si>
+  <si>
+    <t>What? [0, 78]</t>
+  </si>
+  <si>
+    <t>What is this [0, 8]</t>
+  </si>
+  <si>
+    <t>What is this [0, 36]</t>
+  </si>
+  <si>
+    <t>event_ultrasound</t>
+  </si>
+  <si>
+    <t>{'Mild': True, 'Moderate': True, 'No': False, 'Severe': True}</t>
+  </si>
+  <si>
+    <t>overlaps with previous ascites?</t>
+  </si>
+  <si>
+    <t>{'No': False, 'Unknow': None, 'Yes': True}</t>
+  </si>
+  <si>
+    <t>is this really in date enrolment? Also the normal pulse pressure range is between 40 and 60…</t>
+  </si>
+  <si>
+    <t>is this really in date enrolment? There is another pulse right up</t>
+  </si>
+  <si>
+    <t>onset_location</t>
+  </si>
+  <si>
+    <t>{'Home': 'Home', 'HTD': 'HTD', 'Other': 'Other'}</t>
+  </si>
+  <si>
+    <t>what? [1, 3]</t>
+  </si>
+  <si>
+    <t>what? [1, 4]</t>
+  </si>
+  <si>
+    <t>severity_status</t>
+  </si>
+  <si>
+    <t>{'non-severe': 'non-severe', 'severe': 'severe', 'critical': 'critical'}</t>
+  </si>
+  <si>
+    <t>ignore for the former</t>
+  </si>
+  <si>
+    <t>ignore for the former (contains Mixed)</t>
+  </si>
+  <si>
+    <t>contains serotype types csv</t>
+  </si>
+  <si>
+    <t>consensus with damien..</t>
+  </si>
+  <si>
+    <t>contains info skin mucosal</t>
+  </si>
+  <si>
+    <t>{'Skin': True, 'Mucose': True, 'None': False}</t>
+  </si>
+  <si>
+    <t>bleeding_other</t>
+  </si>
+  <si>
+    <t>date should be posterior to previous collection</t>
+  </si>
+  <si>
+    <t>missing folow up date!</t>
+  </si>
+  <si>
+    <t>missing follow up date!</t>
+  </si>
+  <si>
+    <t>what is this? Hct on day 2?</t>
+  </si>
+  <si>
+    <t>what is this plt on day 2?</t>
+  </si>
+  <si>
+    <t>event serology?</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -1275,12 +1416,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1310,12 +1469,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,32 +1820,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L235"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="57.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,13 +1877,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1731,12 +1900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -1745,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1838,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +2018,7 @@
         <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1858,7 +2027,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1886,27 +2055,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1923,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1999,100 +2168,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F20" t="b">
+      <c r="F20" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="M20" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F21" t="b">
+      <c r="F21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="I21" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F22" t="b">
+      <c r="F22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="I22" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F23" t="b">
+      <c r="F24" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="M24" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2106,27 +2293,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
         <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2137,21 +2324,21 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -2160,32 +2347,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
         <v>238</v>
@@ -2194,32 +2381,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
         <v>238</v>
@@ -2228,32 +2415,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E34" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
         <v>239</v>
@@ -2265,32 +2452,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
         <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C37" t="s">
         <v>238</v>
@@ -2299,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2310,21 +2497,21 @@
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C39" t="s">
         <v>238</v>
@@ -2333,32 +2520,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s">
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
         <v>238</v>
@@ -2367,32 +2554,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s">
         <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C43" t="s">
         <v>238</v>
@@ -2401,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2412,21 +2599,21 @@
         <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -2435,32 +2622,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E46" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s">
         <v>239</v>
@@ -2469,32 +2656,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s">
         <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E48" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
         <v>239</v>
@@ -2503,32 +2690,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E50" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
         <v>238</v>
@@ -2537,24 +2724,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" t="s">
-        <v>306</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2582,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2593,13 +2786,13 @@
         <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2610,58 +2803,67 @@
         <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="F57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" t="s">
-        <v>306</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C58" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2672,58 +2874,67 @@
         <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="F61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D62" t="s">
-        <v>306</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C62" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2734,98 +2945,98 @@
         <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s">
         <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
         <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
         <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C69" t="s">
         <v>240</v>
@@ -2834,87 +3045,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E70" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C71" t="s">
         <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C73" t="s">
         <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2925,90 +3136,90 @@
         <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
         <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
         <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B77" t="s">
-        <v>324</v>
-      </c>
-      <c r="C77" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" t="s">
-        <v>313</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>417</v>
       </c>
       <c r="C78" t="s">
         <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3019,79 +3230,79 @@
         <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
         <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -3102,147 +3313,153 @@
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
         <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E84" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
         <v>239</v>
       </c>
       <c r="D85" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="F86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C87" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E87" t="s">
-        <v>303</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C88" t="s">
         <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C89" t="s">
         <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C90" t="s">
         <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3253,198 +3470,210 @@
         <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>299</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C92" t="s">
-        <v>239</v>
-      </c>
-      <c r="D92" t="s">
-        <v>251</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C92" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C93" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" t="s">
-        <v>257</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="C93" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C94" t="s">
-        <v>239</v>
-      </c>
-      <c r="D94" t="s">
-        <v>257</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C94" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C95" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" t="s">
-        <v>255</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C95" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C96" t="s">
         <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s">
         <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
         <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E101" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3455,13 +3684,13 @@
         <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3472,21 +3701,21 @@
         <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E103" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
@@ -3495,15 +3724,15 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
@@ -3512,30 +3741,30 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
         <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3546,13 +3775,13 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3566,10 +3795,10 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -3580,13 +3809,13 @@
         <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3597,13 +3826,13 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -3620,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -3634,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -3651,27 +3880,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C114" t="s">
         <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -3685,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -3702,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -3716,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -3733,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -3744,13 +3973,13 @@
         <v>239</v>
       </c>
       <c r="D119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -3764,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -3781,27 +4010,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C122" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" t="s">
-        <v>313</v>
-      </c>
-      <c r="E122" t="s">
-        <v>303</v>
-      </c>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C122" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -3815,24 +4047,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B124" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" t="s">
-        <v>239</v>
-      </c>
-      <c r="D124" t="s">
-        <v>252</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -3846,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -3857,13 +4095,16 @@
         <v>239</v>
       </c>
       <c r="D126" t="s">
-        <v>245</v>
+        <v>298</v>
+      </c>
+      <c r="E126" t="s">
+        <v>299</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -3877,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -3891,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -3908,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3922,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -3933,13 +4174,13 @@
         <v>239</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -3953,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -3964,13 +4205,13 @@
         <v>239</v>
       </c>
       <c r="D133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3987,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -4001,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -4018,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -4032,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -4049,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -4063,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -4077,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -4091,69 +4332,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C142" t="s">
         <v>239</v>
       </c>
       <c r="D142" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E142" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="143" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B143" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B143" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="F143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B144" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B144" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="F144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -4167,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -4178,97 +4428,97 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="148" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="F148" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="F149" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="F150" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="F151" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="F152" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -4281,8 +4531,11 @@
       <c r="F154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -4293,58 +4546,64 @@
         <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="156" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="F156" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="F157" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B158" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" t="s">
-        <v>239</v>
-      </c>
-      <c r="D158" t="s">
-        <v>267</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -4355,13 +4614,13 @@
         <v>239</v>
       </c>
       <c r="D159" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -4378,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -4389,13 +4648,13 @@
         <v>239</v>
       </c>
       <c r="D161" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -4406,13 +4665,13 @@
         <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -4423,13 +4682,13 @@
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -4440,13 +4699,13 @@
         <v>239</v>
       </c>
       <c r="D164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -4460,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -4474,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -4488,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -4502,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -4516,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -4530,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -4544,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -4558,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -4572,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -4586,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -4597,13 +4856,13 @@
         <v>239</v>
       </c>
       <c r="D175" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -4614,70 +4873,70 @@
         <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C177" t="s">
         <v>239</v>
       </c>
       <c r="D177" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C179" t="s">
         <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -4688,30 +4947,33 @@
         <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="C181" t="s">
         <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>250</v>
+        <v>434</v>
+      </c>
+      <c r="E181" t="s">
+        <v>299</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -4722,16 +4984,16 @@
         <v>239</v>
       </c>
       <c r="D182" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -4742,13 +5004,13 @@
         <v>239</v>
       </c>
       <c r="D183" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -4759,58 +5021,70 @@
         <v>239</v>
       </c>
       <c r="D184" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="185" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B185" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B185" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="F185" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B186" t="s">
-        <v>194</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B186" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F186" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s">
         <v>239</v>
       </c>
       <c r="D187" t="s">
-        <v>275</v>
+        <v>438</v>
+      </c>
+      <c r="E187" t="s">
+        <v>299</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -4821,50 +5095,50 @@
         <v>241</v>
       </c>
       <c r="E188" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C189" t="s">
-        <v>239</v>
-      </c>
-      <c r="D189" t="s">
-        <v>245</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="C189" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F189" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C190" t="s">
-        <v>239</v>
-      </c>
-      <c r="D190" t="s">
-        <v>245</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C190" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F190" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -4878,41 +5152,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="192" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C192" t="s">
-        <v>239</v>
-      </c>
-      <c r="D192" t="s">
-        <v>276</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="C192" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F192" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C193" t="s">
-        <v>239</v>
-      </c>
-      <c r="D193" t="s">
-        <v>277</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C193" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F193" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -4923,13 +5203,13 @@
         <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -4946,86 +5226,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
       <c r="C196" t="s">
         <v>239</v>
       </c>
       <c r="D196" t="s">
-        <v>279</v>
+        <v>442</v>
+      </c>
+      <c r="E196" t="s">
+        <v>299</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="197" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B197" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="B197" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="D197" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F197" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="F198" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="F199" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B200" t="s">
-        <v>386</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="B200" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D200" t="s">
-        <v>387</v>
-      </c>
-      <c r="E200" t="s">
-        <v>303</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D200" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F200" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -5036,13 +5334,13 @@
         <v>239</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -5053,33 +5351,36 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="203" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B203" t="s">
-        <v>388</v>
-      </c>
-      <c r="C203" t="s">
-        <v>239</v>
-      </c>
-      <c r="D203" t="s">
-        <v>389</v>
-      </c>
-      <c r="E203" t="s">
-        <v>303</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F203" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -5096,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -5107,220 +5408,271 @@
         <v>239</v>
       </c>
       <c r="D205" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="206" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C206" t="s">
-        <v>239</v>
-      </c>
-      <c r="D206" t="s">
-        <v>253</v>
-      </c>
-      <c r="F206" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="C206" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F206" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B207" t="s">
-        <v>312</v>
-      </c>
-      <c r="C207" t="s">
-        <v>239</v>
-      </c>
-      <c r="D207" t="s">
-        <v>245</v>
-      </c>
-      <c r="F207" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="B207" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F207" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B208" t="s">
-        <v>322</v>
-      </c>
-      <c r="C208" t="s">
-        <v>239</v>
-      </c>
-      <c r="D208" t="s">
-        <v>245</v>
-      </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="B208" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F208" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C209" t="s">
-        <v>239</v>
-      </c>
-      <c r="D209" t="s">
-        <v>245</v>
-      </c>
-      <c r="F209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="C209" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F209" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B210" t="s">
-        <v>321</v>
-      </c>
-      <c r="C210" t="s">
-        <v>239</v>
-      </c>
-      <c r="D210" t="s">
-        <v>245</v>
-      </c>
-      <c r="F210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="B210" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B211" t="s">
-        <v>323</v>
-      </c>
-      <c r="C211" t="s">
-        <v>239</v>
-      </c>
-      <c r="D211" t="s">
-        <v>245</v>
-      </c>
-      <c r="F211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="B211" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B212" t="s">
-        <v>324</v>
-      </c>
-      <c r="C212" t="s">
-        <v>239</v>
-      </c>
-      <c r="D212" t="s">
-        <v>245</v>
-      </c>
-      <c r="F212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="B212" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F212" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B213" t="s">
-        <v>403</v>
-      </c>
-      <c r="C213" t="s">
-        <v>239</v>
-      </c>
-      <c r="D213" t="s">
-        <v>245</v>
-      </c>
-      <c r="F213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="B213" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F213" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B214" t="s">
-        <v>404</v>
-      </c>
-      <c r="C214" t="s">
-        <v>239</v>
-      </c>
-      <c r="D214" t="s">
-        <v>405</v>
-      </c>
-      <c r="F214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="B214" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F214" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C215" t="s">
-        <v>239</v>
-      </c>
-      <c r="D215" t="s">
-        <v>252</v>
-      </c>
-      <c r="F215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C215" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F215" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C216" t="s">
         <v>241</v>
       </c>
       <c r="E216" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B217" t="s">
-        <v>391</v>
-      </c>
-      <c r="C217" t="s">
+      <c r="B217" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F217" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F217" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M217" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -5331,72 +5683,81 @@
         <v>238</v>
       </c>
       <c r="E218" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B219" t="s">
-        <v>392</v>
-      </c>
-      <c r="C219" t="s">
+      <c r="B219" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F219" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="F219" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="M219" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F220" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="F220" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F221" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F221" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="M221" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C222" t="s">
         <v>243</v>
@@ -5411,12 +5772,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B223" t="s">
-        <v>353</v>
+        <v>348</v>
+      </c>
+      <c r="I223" t="s">
+        <v>407</v>
       </c>
       <c r="K223" t="s">
         <v>37</v>
@@ -5425,12 +5789,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B224" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K224" t="s">
         <v>39</v>
@@ -5439,12 +5803,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B225" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K225" t="s">
         <v>41</v>
@@ -5453,12 +5817,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B226" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K226" t="s">
         <v>43</v>
@@ -5467,12 +5831,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B227" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
@@ -5481,12 +5845,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B228" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K228" t="s">
         <v>47</v>
@@ -5495,12 +5859,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B229" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K229" t="s">
         <v>49</v>
@@ -5509,12 +5873,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B230" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K230" t="s">
         <v>53</v>
@@ -5523,12 +5887,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K231" t="s">
         <v>55</v>
@@ -5537,12 +5901,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B232" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K232" t="s">
         <v>57</v>
@@ -5551,12 +5915,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B233" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K233" t="s">
         <v>59</v>
@@ -5565,12 +5929,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B234" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K234" t="s">
         <v>61</v>
@@ -5579,17 +5943,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B235" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K235" t="s">
         <v>51</v>
       </c>
       <c r="L235" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>423</v>
+      </c>
+      <c r="B236" t="s">
+        <v>423</v>
+      </c>
+      <c r="K236" t="s">
+        <v>131</v>
+      </c>
+      <c r="L236" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>424</v>
+      </c>
+      <c r="B237" t="s">
+        <v>424</v>
+      </c>
+      <c r="K237" t="s">
+        <v>133</v>
+      </c>
+      <c r="L237" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5601,29 +5993,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5655,13 +6047,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5672,18 +6067,18 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>242</v>
@@ -5692,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5706,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5720,12 +6115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
@@ -5734,61 +6129,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E9" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -5799,13 +6194,13 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -5816,64 +6211,64 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -5884,18 +6279,18 @@
         <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
         <v>243</v>
@@ -5904,24 +6299,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F17" t="b">
+      <c r="F17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5937,20 +6335,20 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5982,7 +6380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5993,13 +6391,13 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6013,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6027,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -6052,13 +6450,13 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -6069,64 +6467,64 @@
         <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -6137,7 +6535,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1189F-F74D-4AA4-93F5-05C327803557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F9DEF-6D1E-49C6-A212-E0FB42735B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="472">
   <si>
     <t>from_name</t>
   </si>
@@ -1393,6 +1393,51 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>skin_perfusion</t>
+  </si>
+  <si>
+    <t>chest_indrawing</t>
+  </si>
+  <si>
+    <t>chest_sound_left</t>
+  </si>
+  <si>
+    <t>chest_sound_right</t>
+  </si>
+  <si>
+    <t>furosmide_dose</t>
+  </si>
+  <si>
+    <t>furosmide_days</t>
+  </si>
+  <si>
+    <t>ringers_lactate_l2h</t>
+  </si>
+  <si>
+    <t>ringers_lactate_sub</t>
+  </si>
+  <si>
+    <t>dextran_2h</t>
+  </si>
+  <si>
+    <t>starch_2h</t>
+  </si>
+  <si>
+    <t>dextran_sub</t>
+  </si>
+  <si>
+    <t>starch_sub</t>
+  </si>
+  <si>
+    <t>uss_chest_depth_right</t>
+  </si>
+  <si>
+    <t>uss_chest_depth_left</t>
+  </si>
+  <si>
+    <t>{'secondary': 'Secondary', 'unknown': 'V_1', 'Primary': 'V_2', 'Primary': 'V_3'}</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,6 +1483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1482,6 +1533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,19 +1874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="121" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3361,7 +3413,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>94</v>
+        <v>457</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>239</v>
@@ -3484,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>239</v>
@@ -3504,7 +3556,7 @@
         <v>101</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>239</v>
@@ -3524,7 +3576,7 @@
         <v>102</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>102</v>
+        <v>460</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>239</v>
@@ -4109,7 +4161,7 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="C127" t="s">
         <v>241</v>
@@ -4123,7 +4175,7 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>462</v>
       </c>
       <c r="C128" t="s">
         <v>238</v>
@@ -4439,7 +4491,7 @@
         <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>156</v>
+        <v>463</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>238</v>
@@ -4453,7 +4505,7 @@
         <v>157</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>157</v>
+        <v>464</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>238</v>
@@ -4467,7 +4519,7 @@
         <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>158</v>
+        <v>465</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>238</v>
@@ -4481,7 +4533,7 @@
         <v>159</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>238</v>
@@ -4495,7 +4547,7 @@
         <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>160</v>
+        <v>466</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>238</v>
@@ -4509,7 +4561,7 @@
         <v>161</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>161</v>
+        <v>468</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>238</v>
@@ -4557,7 +4609,7 @@
         <v>164</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>241</v>
@@ -4571,7 +4623,7 @@
         <v>165</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>241</v>
@@ -5419,7 +5471,7 @@
         <v>214</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>239</v>
@@ -5995,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,20 +6320,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F15" t="b">
+      <c r="B15" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F15" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -5,24 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-df\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F9DEF-6D1E-49C6-A212-E0FB42735B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7729AC4-5135-4C7F-A080-8D9134C28456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
     <sheet name="FINAL_ELISA_14DEC2012_ALL_DATA" sheetId="2" r:id="rId2"/>
     <sheet name="FINAL_ELISA_SUMMARY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="508">
   <si>
     <t>from_name</t>
   </si>
@@ -762,21 +773,6 @@
     <t>{'No': 'V_0', 'Yes': 'V_1'}</t>
   </si>
   <si>
-    <t>{'Ho Chi Minh': 'V_0', 'Other provinces': 'V_1'}</t>
-  </si>
-  <si>
-    <t>{'Urban': 'V_0', 'Rural': 'V_1'}</t>
-  </si>
-  <si>
-    <t>{'Home': 'V_0', 'Another hospital': 'V_1', 'Unknown': 'V_3', 'Other': 'V_4'}</t>
-  </si>
-  <si>
-    <t>{3: 'V_1'}</t>
-  </si>
-  <si>
-    <t>{'No': 'V_0', 'Yes': 'V_2'}</t>
-  </si>
-  <si>
     <t>{'Yes': 'V_0', 'No': 'V_1'}</t>
   </si>
   <si>
@@ -789,27 +785,12 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{'Cool': 'V_0', 'Warm': 'V_1', 'Cold': 'V_2'}</t>
-  </si>
-  <si>
-    <t>{'No': 'V_0'}</t>
-  </si>
-  <si>
     <t>{'bruising on face for trauma': 'V_1', 'Stool results: RC+,WC ++, E.histolytice +': 'V_2', 'Epigastrium pain': 'V_3'}</t>
   </si>
   <si>
-    <t>{5: 'V_1', 6: 'V_2', 8: 'V_3', 7: 'V_4'}</t>
-  </si>
-  <si>
-    <t>{'Home': 'V_0', 'Hospital': 'V_1', 'Self discharge': 'V_3'}</t>
-  </si>
-  <si>
     <t>{'Degree 3': 'V_0', 'Degree 4': 'V_1'}</t>
   </si>
   <si>
-    <t>{6: 'V_1', 5: 'V_2', 8: 'V_3', 7: 'V_4', 14: 'V_5'}</t>
-  </si>
-  <si>
     <t>{3: 'V_1', 2: 'V_2', 1: 'V_3'}</t>
   </si>
   <si>
@@ -837,18 +818,9 @@
     <t>{'Not in trial': 'V_0', 'Trial moderate': 'V_1', 'Trial severe': 'V_2'}</t>
   </si>
   <si>
-    <t>{'Dengue': 'V_0'}</t>
-  </si>
-  <si>
     <t>{'&lt;2': 'V_1', '&gt;=2': 'V_2'}</t>
   </si>
   <si>
-    <t>{1: 'V_0', 3: 'V_1', 4: 'V_2', 2: 'V_3'}</t>
-  </si>
-  <si>
-    <t>{1: 'V_0', 2: 'V_1', 3: 'V_2'}</t>
-  </si>
-  <si>
     <t>{'nontrial': 'V_0', 'trial': 'V_1'}</t>
   </si>
   <si>
@@ -894,9 +866,6 @@
     <t>{'Yes': 'V_0', 'No': 'V_1', 'Unknown': 'V_2'}</t>
   </si>
   <si>
-    <t>{'secondary': 'V_0', 'unknown': 'V_1', 'check (possible primary)': 'V_2', 'primary': 'V_3'}</t>
-  </si>
-  <si>
     <t>study_day_col</t>
   </si>
   <si>
@@ -1041,12 +1010,6 @@
     <t>date_discharge</t>
   </si>
   <si>
-    <t>death_date</t>
-  </si>
-  <si>
-    <t>multiple_shock</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -1146,21 +1109,12 @@
     <t>date_abdominal_pain</t>
   </si>
   <si>
-    <t>pcr_dengue_interpretation</t>
-  </si>
-  <si>
     <t>{'Dengue': 'Lab-confirmed Dengue', 'No sample': None, 'No result': None, 'Not dengue': 'Not Dengue', 'Unknown': 'Inconclusive'}</t>
   </si>
   <si>
-    <t>serology_elisa_interpretation</t>
-  </si>
-  <si>
     <t>{'Dengue': 'Lab-confirmed Dengue', 'No sample': None, 'Not dengue': 'Not Dengue', 'No result': None, 'Unknown': 'Inconclusive'}</t>
   </si>
   <si>
-    <t>final_interpretation</t>
-  </si>
-  <si>
     <t>U/L</t>
   </si>
   <si>
@@ -1173,9 +1127,6 @@
     <t>serology_interpretation</t>
   </si>
   <si>
-    <t>{'secondary': 'Probably secondary', 'unknown': 'Inconclusive', 'primary': 'Probably primary', 'check (possible primary)': 'Probably primary'}</t>
-  </si>
-  <si>
     <t>haematocrit_percent</t>
   </si>
   <si>
@@ -1188,18 +1139,12 @@
     <t>percent</t>
   </si>
   <si>
-    <t>gigacount/L</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
     <t>event_admission</t>
   </si>
   <si>
-    <t>event_transferred</t>
-  </si>
-  <si>
     <t>event_enrolment</t>
   </si>
   <si>
@@ -1242,9 +1187,6 @@
     <t>What is this?</t>
   </si>
   <si>
-    <t>What?</t>
-  </si>
-  <si>
     <t>event_fever</t>
   </si>
   <si>
@@ -1290,27 +1232,12 @@
     <t>heart or lung? All negative</t>
   </si>
   <si>
-    <t>effusion or pleural efussion. Date observation or day effusion using eff day</t>
-  </si>
-  <si>
     <t>date_effusion</t>
   </si>
   <si>
     <t>date_ascites</t>
   </si>
   <si>
-    <t>ascites?</t>
-  </si>
-  <si>
-    <t>multiple_shock_no</t>
-  </si>
-  <si>
-    <t>multiple_shock_time</t>
-  </si>
-  <si>
-    <t>What? [0, 78]</t>
-  </si>
-  <si>
     <t>What is this [0, 8]</t>
   </si>
   <si>
@@ -1323,9 +1250,6 @@
     <t>{'Mild': True, 'Moderate': True, 'No': False, 'Severe': True}</t>
   </si>
   <si>
-    <t>overlaps with previous ascites?</t>
-  </si>
-  <si>
     <t>{'No': False, 'Unknow': None, 'Yes': True}</t>
   </si>
   <si>
@@ -1341,12 +1265,6 @@
     <t>{'Home': 'Home', 'HTD': 'HTD', 'Other': 'Other'}</t>
   </si>
   <si>
-    <t>what? [1, 3]</t>
-  </si>
-  <si>
-    <t>what? [1, 4]</t>
-  </si>
-  <si>
     <t>severity_status</t>
   </si>
   <si>
@@ -1374,21 +1292,6 @@
     <t>bleeding_other</t>
   </si>
   <si>
-    <t>date should be posterior to previous collection</t>
-  </si>
-  <si>
-    <t>missing folow up date!</t>
-  </si>
-  <si>
-    <t>missing follow up date!</t>
-  </si>
-  <si>
-    <t>what is this? Hct on day 2?</t>
-  </si>
-  <si>
-    <t>what is this plt on day 2?</t>
-  </si>
-  <si>
     <t>event serology?</t>
   </si>
   <si>
@@ -1437,7 +1340,223 @@
     <t>uss_chest_depth_left</t>
   </si>
   <si>
-    <t>{'secondary': 'Secondary', 'unknown': 'V_1', 'Primary': 'V_2', 'Primary': 'V_3'}</t>
+    <t>date_onset</t>
+  </si>
+  <si>
+    <t>event_onset</t>
+  </si>
+  <si>
+    <t>-day_ill</t>
+  </si>
+  <si>
+    <t>-fever_d</t>
+  </si>
+  <si>
+    <t>-hdache_d</t>
+  </si>
+  <si>
+    <t>-musp_d</t>
+  </si>
+  <si>
+    <t>-sob_d</t>
+  </si>
+  <si>
+    <t>-tired_d</t>
+  </si>
+  <si>
+    <t>-chills_d</t>
+  </si>
+  <si>
+    <t>-vomit_d</t>
+  </si>
+  <si>
+    <t>-cough_d</t>
+  </si>
+  <si>
+    <t>-rashis_d</t>
+  </si>
+  <si>
+    <t>-skbled_d</t>
+  </si>
+  <si>
+    <t>-petechiae_d</t>
+  </si>
+  <si>
+    <t>-mmbled_d</t>
+  </si>
+  <si>
+    <t>-abpain_d</t>
+  </si>
+  <si>
+    <t>-eff_day</t>
+  </si>
+  <si>
+    <t>-asc_day</t>
+  </si>
+  <si>
+    <t>admission_from</t>
+  </si>
+  <si>
+    <t>admission_from_hospital_name</t>
+  </si>
+  <si>
+    <t>{'Urban': 'Urban', 'Rural': 'Rural'}</t>
+  </si>
+  <si>
+    <t>{'Home': 'Home', 'Another hospital': 'Hospital', 'Unknown': None, 'Other': None}</t>
+  </si>
+  <si>
+    <t>{'Ho Chi Minh': 'Ho Chi Minh', 'Other provinces': 'Other'}</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>area_type</t>
+  </si>
+  <si>
+    <t>admission_from_hospital_date</t>
+  </si>
+  <si>
+    <t>Whether suffered dengue before?</t>
+  </si>
+  <si>
+    <t>date_admission</t>
+  </si>
+  <si>
+    <t>date_death</t>
+  </si>
+  <si>
+    <t>Date admitted in the other hospital</t>
+  </si>
+  <si>
+    <t>{3: 3}</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal_day</t>
+  </si>
+  <si>
+    <t>bleeding_mucosal_specification</t>
+  </si>
+  <si>
+    <t>previous_dengue</t>
+  </si>
+  <si>
+    <t>previous_dengue_when</t>
+  </si>
+  <si>
+    <t>{'Cool': 'Cool', 'Warm': 'Warmd', 'Cold': 'Cold'}</t>
+  </si>
+  <si>
+    <t>{'No': False}</t>
+  </si>
+  <si>
+    <t>{'Home': 'Home', 'Hospital': 'Hospital', 'Self discharge': 'Self discharge'}</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>complications_severe</t>
+  </si>
+  <si>
+    <t>complications_description</t>
+  </si>
+  <si>
+    <t>bleeding_description</t>
+  </si>
+  <si>
+    <t>fluid_volume</t>
+  </si>
+  <si>
+    <t>{6: 6, 5:5, 8: 8, 7: 7, 14: 14}</t>
+  </si>
+  <si>
+    <t>is transfusion or transferred?</t>
+  </si>
+  <si>
+    <t>{5: 5, 6: 6, 8: 8, 7: 7}</t>
+  </si>
+  <si>
+    <t>Will define ourselves from symptoms</t>
+  </si>
+  <si>
+    <t>inotropes</t>
+  </si>
+  <si>
+    <t>Assess when 01nva study completed.</t>
+  </si>
+  <si>
+    <t>antimicrobial</t>
+  </si>
+  <si>
+    <t>antimicrobial_description</t>
+  </si>
+  <si>
+    <t>What is this [0, 78]</t>
+  </si>
+  <si>
+    <t>Whas is this</t>
+  </si>
+  <si>
+    <t>date_ultrasound</t>
+  </si>
+  <si>
+    <t>Ascites from ultrasound? Otherwise change date_admission.</t>
+  </si>
+  <si>
+    <t>dengue_serology_interpretation</t>
+  </si>
+  <si>
+    <t>dengue_pcr_interpretation</t>
+  </si>
+  <si>
+    <t>dengue_interpretation</t>
+  </si>
+  <si>
+    <t>what is this? [1, 3]</t>
+  </si>
+  <si>
+    <t>what is this? [1, 4]</t>
+  </si>
+  <si>
+    <t>{1: 1, 3: 3, 4: 4, 2: 2}</t>
+  </si>
+  <si>
+    <t>{1: 1, 2: 2, 3: 3}</t>
+  </si>
+  <si>
+    <t>{'secondary': 'Secondary', 'unknown': 'Inconclusive', 'primary': 'Primary', 'check (possible primary)': 'Primary'}</t>
+  </si>
+  <si>
+    <t>date should be later than date_admission because it is new?</t>
+  </si>
+  <si>
+    <t>Missing follow up date!</t>
+  </si>
+  <si>
+    <t>{'secondary': 'Secondary', 'unknown': 'Inconclusive', 'check (possible primary)': 'Primary', 'primary': 'Primary'}</t>
+  </si>
+  <si>
+    <t>{'Yes': True, 'No': False, 'Unknown': None}</t>
+  </si>
+  <si>
+    <t>{'Dengue': True}</t>
+  </si>
+  <si>
+    <t>shock_multiple</t>
+  </si>
+  <si>
+    <t>shock_multiple_no</t>
+  </si>
+  <si>
+    <t>shock_multiple_time</t>
+  </si>
+  <si>
+    <t>megacount/L</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,12 +1602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1646,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,13 +1985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B220" sqref="B220"/>
+      <selection pane="bottomRight" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,12 +1999,12 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="121" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
@@ -1929,13 +2042,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1957,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -2008,7 +2121,7 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2039,7 +2152,7 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2059,51 +2172,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2112,16 +2225,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2138,7 +2251,7 @@
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2149,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
         <v>242</v>
@@ -2163,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
         <v>240</v>
@@ -2177,13 +2290,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
         <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>455</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2194,13 +2307,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
         <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2211,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
         <v>240</v>
@@ -2225,7 +2338,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>243</v>
@@ -2234,81 +2347,75 @@
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="3" t="b">
+      <c r="F21" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="I21" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="3" t="b">
+      <c r="F22" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="I22" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F23" s="3" t="b">
+      <c r="F23" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="3" t="b">
+      <c r="F24" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2322,13 +2429,13 @@
         <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2350,16 +2457,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
         <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2376,10 +2483,10 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2390,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -2404,16 +2511,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2424,7 +2531,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
         <v>238</v>
@@ -2438,16 +2545,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E32" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2458,7 +2565,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
         <v>238</v>
@@ -2472,16 +2579,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2492,13 +2599,13 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
         <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>466</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2509,16 +2616,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
         <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2529,7 +2636,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
         <v>238</v>
@@ -2549,10 +2656,10 @@
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2563,7 +2670,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
         <v>238</v>
@@ -2577,16 +2684,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2597,7 +2704,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
         <v>238</v>
@@ -2611,16 +2718,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s">
         <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2631,7 +2738,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C43" t="s">
         <v>238</v>
@@ -2651,10 +2758,10 @@
         <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2665,7 +2772,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -2679,16 +2786,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2699,7 +2806,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
         <v>239</v>
@@ -2713,16 +2820,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
         <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2733,7 +2840,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s">
         <v>239</v>
@@ -2747,16 +2854,16 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s">
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E50" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2767,7 +2874,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s">
         <v>238</v>
@@ -2776,27 +2883,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>408</v>
+      <c r="B52" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,7 +2911,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
       <c r="C53" t="s">
         <v>239</v>
@@ -2818,7 +2925,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>468</v>
       </c>
       <c r="C54" t="s">
         <v>240</v>
@@ -2838,7 +2945,7 @@
         <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2855,7 +2962,7 @@
         <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2875,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2883,19 +2990,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>469</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2903,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>470</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>242</v>
@@ -2912,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,7 +3033,7 @@
         <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2937,7 +3044,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>240</v>
@@ -2946,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2960,13 +3067,13 @@
         <v>239</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2983,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2997,7 +3104,7 @@
         <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>463</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3008,19 +3115,19 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3028,19 +3135,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C66" t="s">
         <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3048,16 +3155,16 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s">
         <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3068,16 +3175,16 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
         <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3088,7 +3195,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C69" t="s">
         <v>240</v>
@@ -3102,16 +3209,16 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E70" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3122,16 +3229,16 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C71" t="s">
         <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3142,16 +3249,16 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s">
         <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3162,16 +3269,16 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
         <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3188,10 +3295,10 @@
         <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3202,16 +3309,16 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
         <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3222,35 +3329,35 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C76" t="s">
         <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" s="3" t="b">
+      <c r="B77" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F77" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3259,13 +3366,13 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
         <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3282,13 +3389,13 @@
         <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,19 +3403,19 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3316,19 +3423,19 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3336,22 +3443,22 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
         <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3365,7 +3472,7 @@
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3376,16 +3483,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C84" t="s">
         <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3396,36 +3503,36 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
         <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>406</v>
+      <c r="B86" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F86" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3439,16 +3546,16 @@
         <v>239</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F87" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3456,16 +3563,16 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C88" t="s">
         <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
-      </c>
-      <c r="E88" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3476,16 +3583,16 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s">
         <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>309</v>
-      </c>
-      <c r="E89" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -3496,19 +3603,19 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
         <v>238</v>
       </c>
-      <c r="E90" t="s">
-        <v>299</v>
+      <c r="E90" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3522,73 +3629,82 @@
         <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" t="s">
-        <v>299</v>
+        <v>284</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="B92" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F93" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="B93" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F94" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>421</v>
+      <c r="B94" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,7 +3718,7 @@
         <v>239</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F95" s="3" t="b">
         <v>0</v>
@@ -3613,119 +3729,119 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
         <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E97" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C98" t="s">
         <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C99" t="s">
         <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E99" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E100" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3736,13 +3852,13 @@
         <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3753,21 +3869,21 @@
         <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E103" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
@@ -3776,15 +3892,15 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
@@ -3793,30 +3909,30 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s">
         <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E106" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3827,13 +3943,13 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3847,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -3861,13 +3977,13 @@
         <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3878,41 +3994,47 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>474</v>
       </c>
       <c r="C111" t="s">
         <v>239</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>476</v>
       </c>
       <c r="C112" t="s">
         <v>240</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -3920,16 +4042,19 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>475</v>
       </c>
       <c r="C113" t="s">
         <v>239</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,16 +4062,16 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C114" t="s">
         <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E114" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -3957,7 +4082,7 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>477</v>
       </c>
       <c r="C115" t="s">
         <v>240</v>
@@ -3966,83 +4091,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C116" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" t="s">
-        <v>245</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C116" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F117" t="b">
+      <c r="F117" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I117" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="M117" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="F118" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C119" t="s">
-        <v>239</v>
-      </c>
-      <c r="D119" t="s">
-        <v>261</v>
-      </c>
-      <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C119" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B120" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F120" t="b">
-        <v>0</v>
+      <c r="F120" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -4056,33 +4193,34 @@
         <v>239</v>
       </c>
       <c r="D121" t="s">
-        <v>245</v>
+        <v>284</v>
+      </c>
+      <c r="E121" t="s">
+        <v>463</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F122" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>422</v>
+      <c r="C122" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F122" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -4099,27 +4237,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F124" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>425</v>
+      <c r="B124" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F124" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -4147,241 +4282,286 @@
         <v>239</v>
       </c>
       <c r="D126" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E126" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B127" t="s">
-        <v>461</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="F127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B128" t="s">
-        <v>462</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="F128" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" t="s">
-        <v>239</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="B129" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F129" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F130" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F132" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130" t="s">
-        <v>231</v>
-      </c>
-      <c r="C130" t="s">
-        <v>241</v>
-      </c>
-      <c r="F130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" t="s">
-        <v>232</v>
-      </c>
-      <c r="C131" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" t="s">
-        <v>262</v>
-      </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" t="s">
-        <v>233</v>
-      </c>
-      <c r="C132" t="s">
-        <v>241</v>
-      </c>
-      <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133" t="s">
-        <v>239</v>
-      </c>
-      <c r="D133" t="s">
-        <v>263</v>
-      </c>
-      <c r="F133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" t="s">
-        <v>239</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="F134" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F135" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="F136" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="F137" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="F138" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" t="s">
-        <v>239</v>
-      </c>
-      <c r="D138" t="s">
-        <v>245</v>
-      </c>
-      <c r="F138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" t="s">
-        <v>240</v>
-      </c>
-      <c r="F139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="F139" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="F140" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F141" t="b">
-        <v>0</v>
+      <c r="F141" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -4389,16 +4569,16 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>504</v>
       </c>
       <c r="C142" t="s">
         <v>239</v>
       </c>
       <c r="D142" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E142" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -4409,7 +4589,7 @@
         <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>238</v>
@@ -4418,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4426,7 +4606,7 @@
         <v>152</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>241</v>
@@ -4435,24 +4615,24 @@
         <v>0</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F145" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>428</v>
+      <c r="F145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4480,7 +4660,7 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -4491,7 +4671,7 @@
         <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>238</v>
@@ -4505,7 +4685,7 @@
         <v>157</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>238</v>
@@ -4519,7 +4699,7 @@
         <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>238</v>
@@ -4533,7 +4713,7 @@
         <v>159</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>238</v>
@@ -4547,7 +4727,7 @@
         <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>238</v>
@@ -4561,7 +4741,7 @@
         <v>161</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>238</v>
@@ -4575,7 +4755,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>489</v>
       </c>
       <c r="C154" t="s">
         <v>242</v>
@@ -4584,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -4598,37 +4778,43 @@
         <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+    <row r="156" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="B156" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F156" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="E156" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F156" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C157" s="4" t="s">
+      <c r="B157" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F157" s="4" t="b">
+      <c r="E157" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F157" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4637,22 +4823,22 @@
         <v>166</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>299</v>
+        <v>489</v>
       </c>
       <c r="F158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -4666,7 +4852,7 @@
         <v>239</v>
       </c>
       <c r="D159" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -4700,7 +4886,7 @@
         <v>239</v>
       </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -4717,7 +4903,7 @@
         <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -4734,7 +4920,7 @@
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -4751,7 +4937,7 @@
         <v>239</v>
       </c>
       <c r="D164" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -4908,7 +5094,7 @@
         <v>239</v>
       </c>
       <c r="D175" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -4925,7 +5111,7 @@
         <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -4936,16 +5122,16 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>376</v>
+        <v>491</v>
       </c>
       <c r="C177" t="s">
         <v>239</v>
       </c>
       <c r="D177" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E177" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -4956,16 +5142,16 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E178" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -4976,13 +5162,16 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
       <c r="C179" t="s">
         <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>271</v>
+        <v>503</v>
+      </c>
+      <c r="E179" t="s">
+        <v>324</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -4999,7 +5188,7 @@
         <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -5010,16 +5199,16 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C181" t="s">
         <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -5036,10 +5225,10 @@
         <v>239</v>
       </c>
       <c r="D182" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E182" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -5056,7 +5245,7 @@
         <v>239</v>
       </c>
       <c r="D183" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -5073,47 +5262,47 @@
         <v>239</v>
       </c>
       <c r="D184" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F185" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M185" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="F185" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F186" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M186" s="3" t="s">
-        <v>436</v>
+      <c r="F186" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -5121,16 +5310,16 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C187" t="s">
         <v>239</v>
       </c>
       <c r="D187" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="E187" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -5147,13 +5336,13 @@
         <v>241</v>
       </c>
       <c r="E188" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5167,7 +5356,7 @@
         <v>239</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F189" s="4" t="b">
         <v>0</v>
@@ -5184,7 +5373,7 @@
         <v>239</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F190" s="4" t="b">
         <v>0</v>
@@ -5215,13 +5404,13 @@
         <v>239</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="F192" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5235,13 +5424,13 @@
         <v>239</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>274</v>
+        <v>497</v>
       </c>
       <c r="F193" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -5255,7 +5444,7 @@
         <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -5283,16 +5472,16 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="C196" t="s">
         <v>239</v>
       </c>
       <c r="D196" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="E196" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -5303,22 +5492,22 @@
         <v>205</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>240</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="198" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5335,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5352,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5366,13 +5555,13 @@
         <v>240</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F200" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -5386,7 +5575,7 @@
         <v>239</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -5403,7 +5592,7 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -5414,22 +5603,22 @@
         <v>211</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,7 +5649,7 @@
         <v>239</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -5471,22 +5660,22 @@
         <v>214</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
     </row>
     <row r="207" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5494,22 +5683,22 @@
         <v>215</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5517,22 +5706,22 @@
         <v>216</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5546,16 +5735,16 @@
         <v>239</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5563,22 +5752,22 @@
         <v>218</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5586,22 +5775,22 @@
         <v>219</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5609,22 +5798,22 @@
         <v>220</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5632,22 +5821,22 @@
         <v>221</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5655,13 +5844,13 @@
         <v>222</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="F214" s="6" t="b">
         <v>0</v>
@@ -5672,16 +5861,19 @@
         <v>223</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="F215" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -5689,19 +5881,19 @@
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
         <v>241</v>
       </c>
       <c r="E216" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5901,7 @@
         <v>225</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>241</v>
@@ -5718,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -5735,13 +5927,13 @@
         <v>238</v>
       </c>
       <c r="E218" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
     </row>
     <row r="219" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5749,7 +5941,7 @@
         <v>227</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>238</v>
@@ -5758,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5778,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5798,18 +5990,18 @@
         <v>0</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>454</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B222" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C222" t="s">
         <v>243</v>
@@ -5826,16 +6018,16 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B223" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I223" t="s">
-        <v>407</v>
-      </c>
-      <c r="K223" t="s">
-        <v>37</v>
+        <v>384</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="L223" t="s">
         <v>30</v>
@@ -5843,13 +6035,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B224" t="s">
-        <v>349</v>
-      </c>
-      <c r="K224" t="s">
-        <v>39</v>
+        <v>333</v>
+      </c>
+      <c r="K224" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="L224" t="s">
         <v>30</v>
@@ -5857,13 +6049,13 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
-      </c>
-      <c r="K225" t="s">
-        <v>41</v>
+        <v>334</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="L225" t="s">
         <v>30</v>
@@ -5871,13 +6063,13 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B226" t="s">
-        <v>351</v>
-      </c>
-      <c r="K226" t="s">
-        <v>43</v>
+        <v>335</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="L226" t="s">
         <v>30</v>
@@ -5885,13 +6077,13 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B227" t="s">
-        <v>365</v>
-      </c>
-      <c r="K227" t="s">
-        <v>45</v>
+        <v>349</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="L227" t="s">
         <v>30</v>
@@ -5899,13 +6091,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
-      </c>
-      <c r="K228" t="s">
-        <v>47</v>
+        <v>350</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="L228" t="s">
         <v>30</v>
@@ -5913,13 +6105,13 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
-      </c>
-      <c r="K229" t="s">
-        <v>49</v>
+        <v>351</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="L229" t="s">
         <v>30</v>
@@ -5927,13 +6119,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
-      </c>
-      <c r="K230" t="s">
-        <v>53</v>
+        <v>352</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="L230" t="s">
         <v>30</v>
@@ -5941,13 +6133,13 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B231" t="s">
-        <v>369</v>
-      </c>
-      <c r="K231" t="s">
-        <v>55</v>
+        <v>353</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="L231" t="s">
         <v>30</v>
@@ -5955,13 +6147,13 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
-      </c>
-      <c r="K232" t="s">
-        <v>57</v>
+        <v>354</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="L232" t="s">
         <v>30</v>
@@ -5969,13 +6161,13 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B233" t="s">
-        <v>371</v>
-      </c>
-      <c r="K233" t="s">
-        <v>59</v>
+        <v>355</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="L233" t="s">
         <v>30</v>
@@ -5983,13 +6175,13 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B234" t="s">
-        <v>372</v>
-      </c>
-      <c r="K234" t="s">
-        <v>61</v>
+        <v>356</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="L234" t="s">
         <v>30</v>
@@ -5997,13 +6189,13 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B235" t="s">
-        <v>373</v>
-      </c>
-      <c r="K235" t="s">
-        <v>51</v>
+        <v>357</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="L235" t="s">
         <v>30</v>
@@ -6011,13 +6203,13 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B236" t="s">
-        <v>423</v>
-      </c>
-      <c r="K236" t="s">
-        <v>131</v>
+        <v>399</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="L236" t="s">
         <v>30</v>
@@ -6025,15 +6217,32 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B237" t="s">
-        <v>424</v>
-      </c>
-      <c r="K237" t="s">
-        <v>133</v>
+        <v>400</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="L237" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>435</v>
+      </c>
+      <c r="B238" t="s">
+        <v>435</v>
+      </c>
+      <c r="I238" t="s">
+        <v>436</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="L238" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6047,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6265,7 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -6099,13 +6308,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6119,7 +6328,7 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6130,7 +6339,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>242</v>
@@ -6169,10 +6378,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
@@ -6183,16 +6392,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6200,16 +6409,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6217,19 +6426,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6246,7 +6455,7 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6263,7 +6472,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6271,16 +6480,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6288,16 +6497,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6305,35 +6514,41 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>377</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F15" s="8" t="b">
+      <c r="B15" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6342,7 +6557,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>243</v>
@@ -6353,10 +6568,10 @@
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>243</v>
@@ -6365,13 +6580,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6599,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,7 +6658,7 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6502,7 +6717,7 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6519,7 +6734,7 @@
         <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6527,16 +6742,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6544,16 +6759,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6561,16 +6776,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6587,7 +6802,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>501</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7729AC4-5135-4C7F-A080-8D9134C28456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0901C-887E-4629-A3E4-9856D637C107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -1987,11 +1987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J224" sqref="J224"/>
+      <selection pane="bottomRight" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,8 +1999,8 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="112.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -6256,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0901C-887E-4629-A3E4-9856D637C107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D084F-AA6B-45BA-BEFA-9A6E23362126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="23730" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="510">
   <si>
     <t>from_name</t>
   </si>
@@ -776,12 +776,6 @@
     <t>{'Yes': 'V_0', 'No': 'V_1'}</t>
   </si>
   <si>
-    <t>{'Skin': 'V_0', 'Mucose': 'V_1', 'None': 'V_2'}</t>
-  </si>
-  <si>
-    <t>{'&gt;10': 'V_0', '&lt;=10': 'V_1'}</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -1448,9 +1442,6 @@
     <t>previous_dengue_when</t>
   </si>
   <si>
-    <t>{'Cool': 'Cool', 'Warm': 'Warmd', 'Cold': 'Cold'}</t>
-  </si>
-  <si>
     <t>{'No': False}</t>
   </si>
   <si>
@@ -1557,6 +1548,21 @@
   </si>
   <si>
     <t>megacount/L</t>
+  </si>
+  <si>
+    <t>{'Cool': 'Cool', 'Warm': 'Warm', 'Cold': 'Cold'}</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>{'Skin': 'Skin', 'Mucose': 'Mucosal', 'None': None}</t>
+  </si>
+  <si>
+    <t>pulse_pressure_group</t>
+  </si>
+  <si>
+    <t>{'&gt;10': '&gt;10', '&lt;=10': '&lt;=10'}</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +1994,10 @@
   <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B203" sqref="B203"/>
+      <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +2005,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="112.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2042,13 +2048,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2070,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>238</v>
@@ -2121,7 +2127,7 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -2152,7 +2158,7 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2183,7 +2189,7 @@
         <v>238</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>0</v>
@@ -2225,16 +2231,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2251,7 +2257,10 @@
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="E14" t="s">
+        <v>461</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2262,10 +2271,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C15" t="s">
         <v>242</v>
+      </c>
+      <c r="E15" t="s">
+        <v>461</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2276,10 +2288,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
         <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>461</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2290,13 +2305,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>453</v>
+      </c>
+      <c r="E17" t="s">
+        <v>461</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2307,13 +2325,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
         <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>454</v>
+      </c>
+      <c r="E18" t="s">
+        <v>461</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2324,10 +2345,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
         <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>461</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2338,16 +2362,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="E20" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="F20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2382,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>243</v>
@@ -2364,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2402,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>243</v>
@@ -2384,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2422,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>243</v>
@@ -2409,7 +2436,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>243</v>
@@ -2429,13 +2456,13 @@
         <v>239</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2443,10 +2470,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>506</v>
       </c>
       <c r="C26" t="s">
         <v>238</v>
+      </c>
+      <c r="E26" t="s">
+        <v>283</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2457,16 +2487,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
         <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2483,10 +2513,10 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2497,7 +2527,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -2511,16 +2541,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2531,7 +2561,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
         <v>238</v>
@@ -2545,16 +2575,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
         <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2565,7 +2595,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
         <v>238</v>
@@ -2579,16 +2609,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2599,13 +2629,13 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C35" t="s">
         <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2616,16 +2646,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
         <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2636,7 +2666,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
         <v>238</v>
@@ -2656,10 +2686,10 @@
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2670,7 +2700,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
         <v>238</v>
@@ -2684,16 +2714,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s">
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2704,7 +2734,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
         <v>238</v>
@@ -2718,16 +2748,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
         <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2738,7 +2768,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
         <v>238</v>
@@ -2758,10 +2788,10 @@
         <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2772,7 +2802,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -2786,16 +2816,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2806,7 +2836,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
         <v>239</v>
@@ -2820,16 +2850,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
         <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2840,7 +2870,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
         <v>239</v>
@@ -2854,16 +2884,16 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2874,7 +2904,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
         <v>238</v>
@@ -2888,22 +2918,22 @@
         <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2911,7 +2941,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C53" t="s">
         <v>239</v>
@@ -2925,10 +2955,13 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s">
         <v>240</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2945,7 +2978,10 @@
         <v>239</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="E55" t="s">
+        <v>461</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2962,7 +2998,10 @@
         <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="E56" t="s">
+        <v>461</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2978,11 +3017,14 @@
       <c r="C57" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="E57" t="s">
+        <v>461</v>
+      </c>
       <c r="F57" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2990,19 +3032,22 @@
         <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="E58" t="s">
+        <v>461</v>
       </c>
       <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3010,16 +3055,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="E59" t="s">
+        <v>461</v>
+      </c>
       <c r="F59" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3033,7 +3081,10 @@
         <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="E60" t="s">
+        <v>461</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3044,16 +3095,19 @@
         <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="E61" t="s">
+        <v>461</v>
+      </c>
       <c r="F61" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,13 +3121,16 @@
         <v>239</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="E62" t="s">
+        <v>461</v>
       </c>
       <c r="F62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,11 +3143,14 @@
       <c r="C63" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="E63" t="s">
+        <v>461</v>
+      </c>
       <c r="F63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3104,7 +3164,7 @@
         <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3115,19 +3175,19 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3135,19 +3195,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C66" t="s">
         <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3155,16 +3215,16 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C67" t="s">
         <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E67" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3175,16 +3235,16 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
         <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3195,10 +3255,13 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C69" t="s">
         <v>240</v>
+      </c>
+      <c r="E69" t="s">
+        <v>461</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3209,16 +3272,16 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
         <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E70" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3229,16 +3292,16 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s">
         <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3249,16 +3312,16 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
         <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E72" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3269,16 +3332,16 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
         <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3295,10 +3358,10 @@
         <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3309,16 +3372,16 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
         <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3329,16 +3392,16 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
         <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E76" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3349,13 +3412,16 @@
         <v>85</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="E77" t="s">
+        <v>461</v>
       </c>
       <c r="F77" s="6" t="b">
         <v>0</v>
@@ -3366,13 +3432,16 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C78" t="s">
         <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>507</v>
+      </c>
+      <c r="E78" t="s">
+        <v>461</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3389,13 +3458,13 @@
         <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3403,19 +3472,19 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3423,19 +3492,19 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C81" t="s">
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3443,22 +3512,22 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C82" t="s">
         <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3466,13 +3535,16 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="C83" t="s">
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>509</v>
+      </c>
+      <c r="E83" t="s">
+        <v>461</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3483,35 +3555,35 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
         <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E84" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
-        <v>312</v>
-      </c>
-      <c r="C85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" t="b">
+      <c r="B85" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F85" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3520,16 +3592,16 @@
         <v>94</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F86" s="6" t="b">
         <v>0</v>
@@ -3546,16 +3618,16 @@
         <v>239</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F87" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3563,16 +3635,16 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
         <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3583,16 +3655,16 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
         <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -3603,19 +3675,19 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C90" t="s">
         <v>238</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3629,10 +3701,10 @@
         <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -3643,22 +3715,22 @@
         <v>100</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,22 +3738,22 @@
         <v>101</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3689,38 +3761,38 @@
         <v>102</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F95" s="3" t="b">
+      <c r="C95" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F95" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3729,16 +3801,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C96" t="s">
         <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -3749,16 +3821,16 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E97" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -3769,13 +3841,13 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C98" t="s">
         <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -3786,16 +3858,16 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
         <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E99" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -3806,16 +3878,16 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E100" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -3826,16 +3898,16 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C101" t="s">
         <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E101" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -3852,7 +3924,10 @@
         <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="E102" t="s">
+        <v>461</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -3869,10 +3944,10 @@
         <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -3883,7 +3958,7 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
@@ -3892,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -3900,7 +3975,7 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
@@ -3909,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -3917,16 +3992,16 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C106" t="s">
         <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -3943,7 +4018,7 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -3963,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,7 +4052,7 @@
         <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -3994,7 +4069,7 @@
         <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4005,19 +4080,19 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C111" t="s">
         <v>239</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4025,7 +4100,7 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C112" t="s">
         <v>240</v>
@@ -4034,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -4042,19 +4117,19 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C113" t="s">
         <v>239</v>
       </c>
       <c r="D113" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -4062,16 +4137,16 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
         <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -4082,7 +4157,7 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C115" t="s">
         <v>240</v>
@@ -4102,13 +4177,13 @@
         <v>239</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F116" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4125,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4142,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4156,13 +4231,13 @@
         <v>239</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F119" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4170,7 +4245,7 @@
         <v>128</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>238</v>
@@ -4179,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -4193,10 +4268,10 @@
         <v>239</v>
       </c>
       <c r="D121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -4214,10 +4289,10 @@
         <v>239</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F122" s="6" t="b">
         <v>0</v>
@@ -4242,16 +4317,16 @@
         <v>132</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F124" s="6" t="b">
         <v>0</v>
@@ -4282,10 +4357,10 @@
         <v>239</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -4296,7 +4371,7 @@
         <v>135</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>241</v>
@@ -4305,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4313,7 +4388,7 @@
         <v>136</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>238</v>
@@ -4322,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4330,19 +4405,19 @@
         <v>137</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F129" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4359,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4373,13 +4448,13 @@
         <v>239</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F131" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4396,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4410,13 +4485,13 @@
         <v>239</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4424,7 +4499,7 @@
         <v>142</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>239</v>
@@ -4436,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4519,7 @@
         <v>143</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>240</v>
@@ -4453,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4473,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4490,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4510,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4527,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4544,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4561,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -4569,16 +4644,16 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C142" t="s">
         <v>239</v>
       </c>
       <c r="D142" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E142" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -4589,7 +4664,7 @@
         <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>238</v>
@@ -4598,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4606,7 +4681,7 @@
         <v>152</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>241</v>
@@ -4615,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -4660,7 +4735,7 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -4671,7 +4746,7 @@
         <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>238</v>
@@ -4685,7 +4760,7 @@
         <v>157</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>238</v>
@@ -4699,7 +4774,7 @@
         <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>238</v>
@@ -4713,7 +4788,7 @@
         <v>159</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>238</v>
@@ -4727,7 +4802,7 @@
         <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>238</v>
@@ -4741,7 +4816,7 @@
         <v>161</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>238</v>
@@ -4755,7 +4830,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C154" t="s">
         <v>242</v>
@@ -4764,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -4778,7 +4853,7 @@
         <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -4789,13 +4864,13 @@
         <v>164</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>241</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F156" s="6" t="b">
         <v>0</v>
@@ -4806,13 +4881,13 @@
         <v>165</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>241</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F157" s="6" t="b">
         <v>0</v>
@@ -4823,22 +4898,22 @@
         <v>166</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F158" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -4852,7 +4927,7 @@
         <v>239</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -4886,7 +4961,7 @@
         <v>239</v>
       </c>
       <c r="D161" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -4903,7 +4978,7 @@
         <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -5094,7 +5169,7 @@
         <v>239</v>
       </c>
       <c r="D175" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -5111,7 +5186,7 @@
         <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -5122,16 +5197,16 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C177" t="s">
         <v>239</v>
       </c>
       <c r="D177" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -5142,16 +5217,16 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E178" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -5162,16 +5237,16 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C179" t="s">
         <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E179" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -5188,7 +5263,7 @@
         <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -5199,16 +5274,16 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C181" t="s">
         <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E181" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -5225,10 +5300,10 @@
         <v>239</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E182" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -5245,7 +5320,7 @@
         <v>239</v>
       </c>
       <c r="D183" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -5262,7 +5337,7 @@
         <v>239</v>
       </c>
       <c r="D184" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -5273,7 +5348,7 @@
         <v>193</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>238</v>
@@ -5282,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5301,8 +5376,11 @@
       <c r="F186" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="J186" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="M186" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -5310,16 +5388,16 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C187" t="s">
         <v>239</v>
       </c>
       <c r="D187" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E187" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -5336,13 +5414,13 @@
         <v>241</v>
       </c>
       <c r="E188" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5356,7 +5434,7 @@
         <v>239</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F189" s="4" t="b">
         <v>0</v>
@@ -5373,7 +5451,7 @@
         <v>239</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F190" s="4" t="b">
         <v>0</v>
@@ -5404,13 +5482,13 @@
         <v>239</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F192" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5424,13 +5502,13 @@
         <v>239</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F193" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -5444,7 +5522,7 @@
         <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -5472,16 +5550,16 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C196" t="s">
         <v>239</v>
       </c>
       <c r="D196" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E196" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -5492,22 +5570,22 @@
         <v>205</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>240</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5524,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5541,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5555,13 +5633,13 @@
         <v>240</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F200" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -5575,7 +5653,7 @@
         <v>239</v>
       </c>
       <c r="D201" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -5592,7 +5670,7 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -5603,22 +5681,22 @@
         <v>211</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F203" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -5649,7 +5727,7 @@
         <v>239</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -5660,22 +5738,22 @@
         <v>214</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F206" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5683,22 +5761,22 @@
         <v>215</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F207" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5706,22 +5784,22 @@
         <v>216</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F208" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5735,16 +5813,16 @@
         <v>239</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F209" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5752,22 +5830,22 @@
         <v>218</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F210" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5775,22 +5853,22 @@
         <v>219</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F211" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5798,22 +5876,22 @@
         <v>220</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5821,22 +5899,22 @@
         <v>221</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F213" s="3" t="b">
         <v>0</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5844,13 +5922,13 @@
         <v>222</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F214" s="6" t="b">
         <v>0</v>
@@ -5867,13 +5945,13 @@
         <v>239</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F215" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -5881,19 +5959,19 @@
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C216" t="s">
         <v>241</v>
       </c>
       <c r="E216" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5901,7 +5979,7 @@
         <v>225</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>241</v>
@@ -5910,10 +5988,10 @@
         <v>0</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -5927,13 +6005,13 @@
         <v>238</v>
       </c>
       <c r="E218" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5941,7 +6019,7 @@
         <v>227</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>238</v>
@@ -5950,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5970,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5990,18 +6068,18 @@
         <v>0</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B222" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C222" t="s">
         <v>243</v>
@@ -6018,16 +6096,16 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B223" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I223" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L223" t="s">
         <v>30</v>
@@ -6035,13 +6113,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L224" t="s">
         <v>30</v>
@@ -6049,13 +6127,13 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L225" t="s">
         <v>30</v>
@@ -6063,13 +6141,13 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L226" t="s">
         <v>30</v>
@@ -6077,13 +6155,13 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B227" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L227" t="s">
         <v>30</v>
@@ -6091,13 +6169,13 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B228" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L228" t="s">
         <v>30</v>
@@ -6105,13 +6183,13 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B229" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K229" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L229" t="s">
         <v>30</v>
@@ -6119,13 +6197,13 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B230" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K230" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L230" t="s">
         <v>30</v>
@@ -6133,13 +6211,13 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B231" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K231" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L231" t="s">
         <v>30</v>
@@ -6147,13 +6225,13 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B232" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L232" t="s">
         <v>30</v>
@@ -6161,13 +6239,13 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B233" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K233" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L233" t="s">
         <v>30</v>
@@ -6175,13 +6253,13 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B234" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K234" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L234" t="s">
         <v>30</v>
@@ -6189,13 +6267,13 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B235" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K235" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L235" t="s">
         <v>30</v>
@@ -6203,13 +6281,13 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K236" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L236" t="s">
         <v>30</v>
@@ -6217,13 +6295,13 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B237" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K237" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L237" t="s">
         <v>30</v>
@@ -6231,16 +6309,16 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>433</v>
+      </c>
+      <c r="B238" t="s">
+        <v>433</v>
+      </c>
+      <c r="I238" t="s">
+        <v>434</v>
+      </c>
+      <c r="K238" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="B238" t="s">
-        <v>435</v>
-      </c>
-      <c r="I238" t="s">
-        <v>436</v>
-      </c>
-      <c r="K238" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="L238" t="s">
         <v>30</v>
@@ -6257,7 +6335,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,13 +6386,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6328,7 +6406,7 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6339,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>242</v>
@@ -6378,30 +6456,33 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>506</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
       </c>
+      <c r="E6" t="s">
+        <v>375</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6409,16 +6490,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
         <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6426,19 +6507,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6455,7 +6536,7 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6472,7 +6553,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -6480,16 +6561,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6497,16 +6578,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -6514,19 +6595,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -6537,16 +6618,16 @@
         <v>211</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F15" s="6" t="b">
         <v>0</v>
@@ -6557,7 +6638,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
         <v>243</v>
@@ -6568,10 +6649,10 @@
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>243</v>
@@ -6580,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6658,7 +6739,7 @@
         <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6717,7 +6798,7 @@
         <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6734,7 +6815,7 @@
         <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6742,16 +6823,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6759,16 +6840,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6776,16 +6857,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6802,7 +6883,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
+++ b/examples/oucru/oucru-df/resources/outputs/templates/ccfgs_df_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-df\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D084F-AA6B-45BA-BEFA-9A6E23362126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53D9D2-9C29-4935-8F49-13712A571883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="23730" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25995" yWindow="480" windowWidth="23730" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="512">
   <si>
     <t>from_name</t>
   </si>
@@ -1499,12 +1499,6 @@
     <t>Ascites from ultrasound? Otherwise change date_admission.</t>
   </si>
   <si>
-    <t>dengue_serology_interpretation</t>
-  </si>
-  <si>
-    <t>dengue_pcr_interpretation</t>
-  </si>
-  <si>
     <t>dengue_interpretation</t>
   </si>
   <si>
@@ -1563,6 +1557,18 @@
   </si>
   <si>
     <t>{'&gt;10': '&gt;10', '&lt;=10': '&lt;=10'}</t>
+  </si>
+  <si>
+    <t>pcr_dengue_interpretation</t>
+  </si>
+  <si>
+    <t>serology_dengue_interpretation</t>
+  </si>
+  <si>
+    <t>diuretics</t>
+  </si>
+  <si>
+    <t>past_medical_history</t>
   </si>
 </sst>
 </file>
@@ -1993,11 +1999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2011,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2351,7 +2357,7 @@
         <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2367,9 +2373,6 @@
       <c r="C20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="F20" s="3" t="b">
         <v>1</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
         <v>238</v>
@@ -3075,7 +3078,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>511</v>
       </c>
       <c r="C60" t="s">
         <v>239</v>
@@ -3438,7 +3441,7 @@
         <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E78" t="s">
         <v>461</v>
@@ -3535,13 +3538,13 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C83" t="s">
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E83" t="s">
         <v>461</v>
@@ -3598,7 +3601,7 @@
         <v>239</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>461</v>
@@ -4351,7 +4354,7 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>510</v>
       </c>
       <c r="C126" t="s">
         <v>239</v>
@@ -4644,7 +4647,7 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C142" t="s">
         <v>239</v>
@@ -4664,7 +4667,7 @@
         <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>238</v>
@@ -4681,7 +4684,7 @@
         <v>152</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>241</v>
@@ -5197,7 +5200,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C177" t="s">
         <v>239</v>
@@ -5217,7 +5220,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
@@ -5237,13 +5240,13 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C179" t="s">
         <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E179" t="s">
         <v>322</v>
@@ -5482,13 +5485,13 @@
         <v>239</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F192" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5502,13 +5505,13 @@
         <v>239</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F193" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -5687,7 +5690,7 @@
         <v>239</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>461</v>
@@ -5776,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5799,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5822,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5868,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5891,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5951,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -5991,7 +5994,7 @@
         <v>365</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6028,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6068,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M221" s="4" t="s">
         <v>381</v>
@@ -6334,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -6459,7 +6462,7 @@
         <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
@@ -6598,13 +6601,13 @@
         <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
         <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E14" t="s">
         <v>375</v>
@@ -6624,7 +6627,7 @@
         <v>239</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>375</v>
@@ -6883,7 +6886,7 @@
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
